--- a/data/trans_orig/P1427-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>26575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17033</v>
+        <v>17220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39523</v>
+        <v>40349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02545618754855958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01631569574414869</v>
+        <v>0.01649526852346575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03785964368868593</v>
+        <v>0.03865102917910139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -764,19 +764,19 @@
         <v>33445</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23051</v>
+        <v>23349</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46937</v>
+        <v>45580</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02989773878551277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02060571159025005</v>
+        <v>0.02087263090470659</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0419587365531818</v>
+        <v>0.04074572201866852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -785,19 +785,19 @@
         <v>60020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45833</v>
+        <v>46177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78212</v>
+        <v>80418</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02775369173810192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02119340731813566</v>
+        <v>0.02135284816795742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03616591369628423</v>
+        <v>0.03718621886985743</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1017360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1004412</v>
+        <v>1003586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1026902</v>
+        <v>1026715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9745438124514404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9621403563113141</v>
+        <v>0.9613489708208985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836843042558514</v>
+        <v>0.9835047314765343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>999</v>
@@ -835,19 +835,19 @@
         <v>1085208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1071716</v>
+        <v>1073073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1095602</v>
+        <v>1095304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9701022612144873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9580412634468181</v>
+        <v>0.9592542779813314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9793942884097497</v>
+        <v>0.9791273690952934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1954</v>
@@ -856,19 +856,19 @@
         <v>2102568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2084376</v>
+        <v>2082170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2116755</v>
+        <v>2116411</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9722463082618981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638340863037163</v>
+        <v>0.9628137811301426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9788065926818644</v>
+        <v>0.9786471518320425</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7199</v>
+        <v>7245</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25314</v>
+        <v>23788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01378679715169971</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007367527360176152</v>
+        <v>0.007414706614756836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02590756835795853</v>
+        <v>0.02434643650075811</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -981,19 +981,19 @@
         <v>29492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19714</v>
+        <v>20240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41895</v>
+        <v>42216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02699889666045078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01804744213357445</v>
+        <v>0.0185290033222846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03835353554301654</v>
+        <v>0.03864781776821465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -1002,19 +1002,19 @@
         <v>42962</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30323</v>
+        <v>30890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57461</v>
+        <v>58837</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02076076735809208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01465298767096388</v>
+        <v>0.01492679699753537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02776691221757926</v>
+        <v>0.02843208415438551</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>963602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>951759</v>
+        <v>953285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>969874</v>
+        <v>969828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862132028483003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.974092431642041</v>
+        <v>0.9756535634992419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926324726398238</v>
+        <v>0.9925852933852433</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>992</v>
@@ -1052,19 +1052,19 @@
         <v>1062835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1050432</v>
+        <v>1050111</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072613</v>
+        <v>1072087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9730011033395493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9616464644569834</v>
+        <v>0.9613521822317855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9819525578664257</v>
+        <v>0.9814709966777154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1904</v>
@@ -1073,19 +1073,19 @@
         <v>2026438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2011939</v>
+        <v>2010563</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039077</v>
+        <v>2038510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9792392326419079</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9722330877824208</v>
+        <v>0.9715679158456145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9853470123290361</v>
+        <v>0.9850732030024646</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>17637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11025</v>
+        <v>10305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27729</v>
+        <v>28037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01992622007407202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01245554464038176</v>
+        <v>0.01164240597192939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03132787869025223</v>
+        <v>0.03167618399883215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1198,19 +1198,19 @@
         <v>21767</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13560</v>
+        <v>13429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32712</v>
+        <v>33124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02485387608414258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01548349095735696</v>
+        <v>0.01533388619190588</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0373513662067517</v>
+        <v>0.03782147592004522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1219,19 +1219,19 @@
         <v>39404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27379</v>
+        <v>27569</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54600</v>
+        <v>53418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02237700868185761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01554835503035959</v>
+        <v>0.01565596658807643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03100693324900877</v>
+        <v>0.03033561289771289</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>867478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>857386</v>
+        <v>857078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874090</v>
+        <v>874810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9800737799259279</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9686721213097478</v>
+        <v>0.9683238160011679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9875444553596182</v>
+        <v>0.9883575940280707</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>802</v>
@@ -1269,19 +1269,19 @@
         <v>854029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>843084</v>
+        <v>842672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>862236</v>
+        <v>862367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9751461239158574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9626486337932484</v>
+        <v>0.9621785240799547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9845165090426431</v>
+        <v>0.9846661138080941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1615</v>
@@ -1290,19 +1290,19 @@
         <v>1721507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1706311</v>
+        <v>1707493</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1733532</v>
+        <v>1733342</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9776229913181423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9689930667509913</v>
+        <v>0.9696643871022872</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9844516449696404</v>
+        <v>0.9843440334119236</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>10299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5054</v>
+        <v>4964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21789</v>
+        <v>20389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02047502454879712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01004775889012681</v>
+        <v>0.009869027725712657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04331573008700286</v>
+        <v>0.04053258770451186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1415,19 +1415,19 @@
         <v>9348</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4225</v>
+        <v>4181</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17445</v>
+        <v>18623</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.020648221552909</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009331146811158455</v>
+        <v>0.009234173315342906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03853329777067484</v>
+        <v>0.04113366435394755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1436,19 +1436,19 @@
         <v>19648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11266</v>
+        <v>12276</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30822</v>
+        <v>30851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02055706668354603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0117871788100782</v>
+        <v>0.01284473907007041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03224854791264289</v>
+        <v>0.03227930695371997</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>492724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481234</v>
+        <v>482634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497969</v>
+        <v>498059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9795249754512029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.956684269912997</v>
+        <v>0.9594674122954882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9899522411098731</v>
+        <v>0.9901309722742874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>404</v>
@@ -1486,19 +1486,19 @@
         <v>443388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>435291</v>
+        <v>434113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>448511</v>
+        <v>448555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.979351778447091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9614667022293251</v>
+        <v>0.9588663356460525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9906688531888415</v>
+        <v>0.9907658266846571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>856</v>
@@ -1507,19 +1507,19 @@
         <v>936110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>924936</v>
+        <v>924907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>944492</v>
+        <v>943482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9794429333164539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9677514520873571</v>
+        <v>0.9677206930462801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9882128211899218</v>
+        <v>0.987155260929929</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>67982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51679</v>
+        <v>54041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87681</v>
+        <v>88124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01994098101625275</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01515881482437799</v>
+        <v>0.01585186937570197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02571929679127525</v>
+        <v>0.02584935843118494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1632,19 +1632,19 @@
         <v>94052</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74526</v>
+        <v>75899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114123</v>
+        <v>115206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02657200776464336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02105542948505783</v>
+        <v>0.02144321957799652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03224263066628896</v>
+        <v>0.03254866454487609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -1653,19 +1653,19 @@
         <v>162034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139149</v>
+        <v>136767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192601</v>
+        <v>189929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02331869776362651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02002528554326456</v>
+        <v>0.01968244701227154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0277177929369096</v>
+        <v>0.02733319432059846</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3341163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3321464</v>
+        <v>3321021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3357466</v>
+        <v>3355104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9800590189837473</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9742807032087246</v>
+        <v>0.9741506415688148</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9848411851756218</v>
+        <v>0.9841481306242981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3197</v>
@@ -1703,19 +1703,19 @@
         <v>3445459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3425388</v>
+        <v>3424305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3464985</v>
+        <v>3463612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9734279922353566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.967757369333711</v>
+        <v>0.967451335455124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9789445705149422</v>
+        <v>0.9785567804220036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6329</v>
@@ -1724,19 +1724,19 @@
         <v>6786623</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6756056</v>
+        <v>6758728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6809508</v>
+        <v>6811890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766813022363735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9722822070630904</v>
+        <v>0.9726668056794016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9799747144567356</v>
+        <v>0.9803175529877285</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>7349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3506</v>
+        <v>3313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13974</v>
+        <v>14732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006515360110673841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003108202207158515</v>
+        <v>0.002937058245403681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01238849649937242</v>
+        <v>0.01306074406492255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2089,19 +2089,19 @@
         <v>35757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23625</v>
+        <v>24428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48805</v>
+        <v>50338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02838809944212446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01875686989911045</v>
+        <v>0.01939429273205926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03874771242652844</v>
+        <v>0.03996476432759691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2110,19 +2110,19 @@
         <v>43106</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31321</v>
+        <v>31492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58634</v>
+        <v>58702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0180543654004751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01311860317972675</v>
+        <v>0.01318990196862597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02455805988181478</v>
+        <v>0.02458659876008952</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1120648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1114023</v>
+        <v>1113265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1124491</v>
+        <v>1124684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9934846398893261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9876115035006278</v>
+        <v>0.9869392559350773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968917977928415</v>
+        <v>0.9970629417545955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1157</v>
@@ -2160,19 +2160,19 @@
         <v>1223804</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1210756</v>
+        <v>1209223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1235936</v>
+        <v>1235133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9716119005578755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9612522875734716</v>
+        <v>0.9600352356724033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812431301008897</v>
+        <v>0.9806057072679408</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2215</v>
@@ -2181,19 +2181,19 @@
         <v>2344452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2328924</v>
+        <v>2328856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2356237</v>
+        <v>2356066</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9819456345995249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9754419401181851</v>
+        <v>0.9754134012399113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9868813968202728</v>
+        <v>0.9868100980313742</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>11972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6388</v>
+        <v>7327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19705</v>
+        <v>20286</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01317257588881015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007028861314608433</v>
+        <v>0.008061564414328407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02168219466568738</v>
+        <v>0.02232086800570856</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2306,19 +2306,19 @@
         <v>18463</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10949</v>
+        <v>10886</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28664</v>
+        <v>29349</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01834405339613492</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01087821758896276</v>
+        <v>0.01081559839992237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02848004052096808</v>
+        <v>0.02916051904684172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2327,19 +2327,19 @@
         <v>30434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21455</v>
+        <v>20582</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41961</v>
+        <v>42430</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01589014710637844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0112016503666658</v>
+        <v>0.01074625688872921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02190831770720622</v>
+        <v>0.02215306861371488</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>896853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>889120</v>
+        <v>888539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>902437</v>
+        <v>901498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9868274241111898</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9783178053343129</v>
+        <v>0.9776791319942914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9929711386853916</v>
+        <v>0.9919384355856715</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -2377,19 +2377,19 @@
         <v>988012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977811</v>
+        <v>977126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>995526</v>
+        <v>995589</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9816559466038651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715199594790322</v>
+        <v>0.9708394809531583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9891217824110373</v>
+        <v>0.9891844016000778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1802</v>
@@ -2398,19 +2398,19 @@
         <v>1884866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1873339</v>
+        <v>1872870</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1893845</v>
+        <v>1894718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9841098528936215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9780916822927939</v>
+        <v>0.9778469313862853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9887983496333342</v>
+        <v>0.9892537431112708</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>10464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5638</v>
+        <v>5154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18558</v>
+        <v>18204</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01270317615923686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006844418230123927</v>
+        <v>0.006257170009432518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02252901327512215</v>
+        <v>0.02209875682282488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2523,19 +2523,19 @@
         <v>10402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4685</v>
+        <v>4999</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19158</v>
+        <v>19450</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01349067064683048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006076363674501937</v>
+        <v>0.006483121111929663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02484696777209131</v>
+        <v>0.02522534134912849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2544,19 +2544,19 @@
         <v>20866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13299</v>
+        <v>12531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31574</v>
+        <v>32965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01308391206578544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008339158130698531</v>
+        <v>0.007857331458155863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01979755741615932</v>
+        <v>0.02067002442766526</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>813295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>805201</v>
+        <v>805555</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>818121</v>
+        <v>818605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9872968238407631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9774709867248779</v>
+        <v>0.9779012431771751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931555817698761</v>
+        <v>0.9937428299905675</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>719</v>
@@ -2594,19 +2594,19 @@
         <v>760657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>751901</v>
+        <v>751609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>766374</v>
+        <v>766060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9865093293531695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9751530322279087</v>
+        <v>0.9747746586508714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939236363254981</v>
+        <v>0.9935168788880704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1495</v>
@@ -2615,19 +2615,19 @@
         <v>1573952</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1563244</v>
+        <v>1561853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1581519</v>
+        <v>1582287</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9869160879342146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9802024425838405</v>
+        <v>0.9793299755723341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9916608418693014</v>
+        <v>0.9921426685418441</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>5603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2444</v>
+        <v>1938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12814</v>
+        <v>11486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01105769905455948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004822546779322914</v>
+        <v>0.003823973800818105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0252888208448215</v>
+        <v>0.02266837113384142</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2740,19 +2740,19 @@
         <v>14713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8112</v>
+        <v>7640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26141</v>
+        <v>24521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03004467849143896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01656529188335927</v>
+        <v>0.01560092217503816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05338167711778034</v>
+        <v>0.05007299326661382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -2761,19 +2761,19 @@
         <v>20316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12873</v>
+        <v>12493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31053</v>
+        <v>32591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0203891841831569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01291945812788352</v>
+        <v>0.01253851642740384</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03116566291336376</v>
+        <v>0.03270840541890324</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>501098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493887</v>
+        <v>495215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504257</v>
+        <v>504763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9889423009454406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9747111791551782</v>
+        <v>0.9773316288661587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9951774532206767</v>
+        <v>0.9961760261991819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -2811,19 +2811,19 @@
         <v>474985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463557</v>
+        <v>465177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>481586</v>
+        <v>482058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.969955321508561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9466183228822197</v>
+        <v>0.949927006733386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9834347081166407</v>
+        <v>0.9843990778249617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>908</v>
@@ -2832,19 +2832,19 @@
         <v>976082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>965345</v>
+        <v>963807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>983525</v>
+        <v>983905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9796108158168431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9688343370866357</v>
+        <v>0.9672915945810968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9870805418721165</v>
+        <v>0.9874614835725962</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>35388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25909</v>
+        <v>25551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48623</v>
+        <v>47122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01050941833752958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007694438600680717</v>
+        <v>0.007588065907795039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01443981994491038</v>
+        <v>0.01399410234909936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -2957,19 +2957,19 @@
         <v>79334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61457</v>
+        <v>62686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99415</v>
+        <v>99091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02249474006834848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01742579660102435</v>
+        <v>0.01777411952255913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02818855168332232</v>
+        <v>0.02809651855313625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -2978,19 +2978,19 @@
         <v>114722</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95940</v>
+        <v>94194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137509</v>
+        <v>137522</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01664073304951574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01391631817766636</v>
+        <v>0.01366310176165814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0199459711094636</v>
+        <v>0.01994781900645281</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3331894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3318659</v>
+        <v>3320160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341373</v>
+        <v>3341731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9894905816624704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9855601800550893</v>
+        <v>0.9860058976509006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923055613993192</v>
+        <v>0.9924119340922049</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3253</v>
@@ -3028,19 +3028,19 @@
         <v>3447458</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3427377</v>
+        <v>3427701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3465335</v>
+        <v>3464106</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9775052599316515</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9718114483166777</v>
+        <v>0.9719034814468641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9825742033989755</v>
+        <v>0.982225880477441</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6420</v>
@@ -3049,19 +3049,19 @@
         <v>6779353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6756566</v>
+        <v>6756553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6798135</v>
+        <v>6799881</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9833592669504843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9800540288905364</v>
+        <v>0.9800521809935472</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9860836818223336</v>
+        <v>0.9863368982383418</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>16208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10175</v>
+        <v>10224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24300</v>
+        <v>24480</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03264439849723331</v>
+        <v>0.03264439849723332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02049296481635186</v>
+        <v>0.02059218592497512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04894117539584825</v>
+        <v>0.04930364372852079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -3414,19 +3414,19 @@
         <v>32787</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25461</v>
+        <v>25516</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42719</v>
+        <v>42922</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05267827093702038</v>
+        <v>0.0526782709370204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04090757640539871</v>
+        <v>0.04099625910031419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06863575112100283</v>
+        <v>0.06896216941002513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -3435,19 +3435,19 @@
         <v>48995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38714</v>
+        <v>39038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59845</v>
+        <v>60859</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04378828822970983</v>
+        <v>0.04378828822970984</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03459956187814182</v>
+        <v>0.03488918844570858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05348499219006118</v>
+        <v>0.05439157030125458</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>480308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472216</v>
+        <v>472036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486341</v>
+        <v>486292</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9673556015027666</v>
+        <v>0.9673556015027668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9510588246041516</v>
+        <v>0.950696356271479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.979507035183648</v>
+        <v>0.9794078140750246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -3485,19 +3485,19 @@
         <v>589612</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>579680</v>
+        <v>579477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>596938</v>
+        <v>596883</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9473217290629796</v>
+        <v>0.9473217290629797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9313642488789973</v>
+        <v>0.9310378305899748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9590924235946013</v>
+        <v>0.9590037408996858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1230</v>
@@ -3506,19 +3506,19 @@
         <v>1069919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1059069</v>
+        <v>1058055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1080200</v>
+        <v>1079876</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9562117117702901</v>
+        <v>0.9562117117702903</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.946515007809939</v>
+        <v>0.9456084296987456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9654004381218581</v>
+        <v>0.9651108115542912</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>31972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23428</v>
+        <v>23560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41772</v>
+        <v>41364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03332966590967331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0244224142332002</v>
+        <v>0.02456081622547843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04354552330069333</v>
+        <v>0.04312013521289219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -3631,19 +3631,19 @@
         <v>52055</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43489</v>
+        <v>42608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63459</v>
+        <v>63928</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04665085590813633</v>
+        <v>0.04665085590813631</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03897388415525232</v>
+        <v>0.03818464791012841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05687101502459162</v>
+        <v>0.05729092134397546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -3652,19 +3652,19 @@
         <v>84027</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71028</v>
+        <v>72743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98418</v>
+        <v>101192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04049284369217129</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03422864410336915</v>
+        <v>0.03505498123013638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04742764386398718</v>
+        <v>0.04876466914642895</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>927297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>917497</v>
+        <v>917905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>935841</v>
+        <v>935709</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9666703340903269</v>
+        <v>0.9666703340903268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9564544766993071</v>
+        <v>0.956879864787108</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755775857668</v>
+        <v>0.9754391837745215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1498</v>
@@ -3702,19 +3702,19 @@
         <v>1063794</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1052390</v>
+        <v>1051921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072360</v>
+        <v>1073241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9533491440918637</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9431289849754085</v>
+        <v>0.9427090786560245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9610261158447476</v>
+        <v>0.9618153520898716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2352</v>
@@ -3723,19 +3723,19 @@
         <v>1991091</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1976700</v>
+        <v>1973926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2004090</v>
+        <v>2002375</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9595071563078288</v>
+        <v>0.9595071563078287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.952572356136013</v>
+        <v>0.9512353308535711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9657713558966312</v>
+        <v>0.9649450187698638</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>24661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17520</v>
+        <v>17840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33102</v>
+        <v>33463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02356611495308148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01674217055448744</v>
+        <v>0.01704780287767011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03163145709852259</v>
+        <v>0.03197629077390114</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3848,19 +3848,19 @@
         <v>39412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30747</v>
+        <v>31103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49387</v>
+        <v>49631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03764358094399985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02936737846962927</v>
+        <v>0.02970714026647294</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04717081187210063</v>
+        <v>0.0474035782428374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -3869,19 +3869,19 @@
         <v>64074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53533</v>
+        <v>52215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78376</v>
+        <v>75495</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03060656697022618</v>
+        <v>0.03060656697022617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0255713906105911</v>
+        <v>0.02494179124839499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0374385068549536</v>
+        <v>0.03606205055798591</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1021818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1013377</v>
+        <v>1013016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1028959</v>
+        <v>1028639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9764338850469186</v>
+        <v>0.9764338850469184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9683685429014773</v>
+        <v>0.9680237092260989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9832578294455125</v>
+        <v>0.9829521971223297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1441</v>
@@ -3919,19 +3919,19 @@
         <v>1007579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>997604</v>
+        <v>997360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1016244</v>
+        <v>1015888</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9623564190560002</v>
+        <v>0.962356419056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9528291881278997</v>
+        <v>0.9525964217571627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9706326215303709</v>
+        <v>0.9702928597335273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2427</v>
@@ -3940,19 +3940,19 @@
         <v>2029396</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2015094</v>
+        <v>2017975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2039937</v>
+        <v>2041255</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.969393433029774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9625614931450465</v>
+        <v>0.9639379494420142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9744286093894088</v>
+        <v>0.9750582087516051</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>36777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26811</v>
+        <v>27020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49864</v>
+        <v>49891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03772041108116349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02749859001734227</v>
+        <v>0.02771358317194132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05114341965381607</v>
+        <v>0.0511712659111857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -4065,19 +4065,19 @@
         <v>39137</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30185</v>
+        <v>30035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51267</v>
+        <v>50451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04312346732166406</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03325903024073998</v>
+        <v>0.0330944474365169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05648829592632796</v>
+        <v>0.05558961035987905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -4086,19 +4086,19 @@
         <v>75914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62506</v>
+        <v>63036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92917</v>
+        <v>92325</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04032517994320525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03320264790126507</v>
+        <v>0.03348427740629723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04935722449762795</v>
+        <v>0.04904278229357414</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>938211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925124</v>
+        <v>925097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>948177</v>
+        <v>947968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9622795889188367</v>
+        <v>0.9622795889188366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9488565803461838</v>
+        <v>0.9488287340888137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9725014099826578</v>
+        <v>0.9722864168280586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1254</v>
@@ -4136,19 +4136,19 @@
         <v>868424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>856294</v>
+        <v>857110</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>877376</v>
+        <v>877526</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9568765326783359</v>
+        <v>0.9568765326783361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9435117040736721</v>
+        <v>0.9444103896401209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9667409697592602</v>
+        <v>0.9669055525634831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2149</v>
@@ -4157,19 +4157,19 @@
         <v>1806635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1789632</v>
+        <v>1790224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1820043</v>
+        <v>1819513</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9596748200567947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9506427755023725</v>
+        <v>0.9509572177064262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667973520987349</v>
+        <v>0.966515722593703</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>109619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93130</v>
+        <v>92313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129356</v>
+        <v>127104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03152459760290129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02678252325713566</v>
+        <v>0.02654763691996311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03720063704473935</v>
+        <v>0.03655305659819572</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>308</v>
@@ -4282,19 +4282,19 @@
         <v>163392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145025</v>
+        <v>144344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183964</v>
+        <v>185638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04424606887751536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03927236404224795</v>
+        <v>0.03908790192645052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04981703501477083</v>
+        <v>0.05027017362680846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>479</v>
@@ -4303,19 +4303,19 @@
         <v>273011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246953</v>
+        <v>249192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299875</v>
+        <v>298465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03807655191929608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03444226730808135</v>
+        <v>0.03475458143829527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0418232141158161</v>
+        <v>0.04162668514626147</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3367632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3347895</v>
+        <v>3350147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3384121</v>
+        <v>3384938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9684754023970987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9627993629552609</v>
+        <v>0.9634469434018046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9732174767428643</v>
+        <v>0.9734523630800369</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4992</v>
@@ -4353,19 +4353,19 @@
         <v>3529408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3508836</v>
+        <v>3507162</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3547775</v>
+        <v>3548456</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9557539311224846</v>
+        <v>0.9557539311224845</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9501829649852291</v>
+        <v>0.9497298263731916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9607276359577519</v>
+        <v>0.9609120980735495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8158</v>
@@ -4374,19 +4374,19 @@
         <v>6897041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6870177</v>
+        <v>6871587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6923099</v>
+        <v>6920860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9619234480807038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9581767858841839</v>
+        <v>0.9583733148537381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9655577326919186</v>
+        <v>0.9652454185617045</v>
       </c>
     </row>
     <row r="18">
